--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3620462.449878524</v>
+        <v>3616157.697639712</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283171</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7674144.643594544</v>
+        <v>7674144.643594543</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>57.08569488870559</v>
+      </c>
+      <c r="G2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>50.20964914699417</v>
-      </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>53.53696330591281</v>
+        <v>75.17489648358286</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.67786622941642</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>65.1936384834511</v>
       </c>
       <c r="V4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>412.2877386950441</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>82.64493179374789</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.5538762343441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145.1800897229388</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>45.07122846267654</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>28.67157726060367</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>102.8375604775658</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>250.9295602200644</v>
       </c>
       <c r="G8" t="n">
         <v>411.8302881234605</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.6042843978725</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734613</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3.633964369263849</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1217,7 +1217,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>54.60110574721477</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>22.41150127156626</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719213</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155174</v>
+        <v>25.42862793155201</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088542</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
@@ -1274,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>28.90454471043207</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>125.5957251156698</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695507</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>136.4207955213693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856532</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>13.37642554686418</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.6830416206852</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576158</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881311</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>99.974274198342</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59.44001103519545</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695508</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576158</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560572</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.3431529631752</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182121</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465689</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>1.799772605717913</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560572</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.421048022931</v>
+        <v>19.91555826189229</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856531</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>51.36569740310787</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695507</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.2919725119136</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856531</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012146</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.405450327288</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>2.445727774093873</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.3870054807226</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>102.5041944721331</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>87.82057320600153</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>142.6584215897767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>59.00369384633011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>163.3760574240877</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>151.6499090771556</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>578.2426392372655</v>
+        <v>388.8228542207806</v>
       </c>
       <c r="C2" t="n">
         <v>388.8228542207806</v>
@@ -4318,10 +4318,10 @@
         <v>388.8228542207806</v>
       </c>
       <c r="F2" t="n">
-        <v>381.8773534715772</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
@@ -4330,13 +4330,13 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644755</v>
@@ -4345,7 +4345,7 @@
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020269</v>
@@ -4375,7 +4375,7 @@
         <v>578.2426392372655</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.2426392372655</v>
+        <v>388.8228542207806</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>392.4672266287271</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="C3" t="n">
-        <v>218.0141973476001</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="D3" t="n">
-        <v>69.07978768634885</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
         <v>15.0020469733056</v>
@@ -4433,28 +4433,28 @@
         <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="U3" t="n">
-        <v>750.10234866528</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="V3" t="n">
-        <v>750.10234866528</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="W3" t="n">
-        <v>750.10234866528</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="X3" t="n">
-        <v>750.10234866528</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="Y3" t="n">
-        <v>560.6825636487952</v>
+        <v>192.7966468059547</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233.7219182438899</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="C4" t="n">
-        <v>233.7219182438899</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="D4" t="n">
-        <v>185.5624574060956</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="E4" t="n">
-        <v>185.5624574060956</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
         <v>15.0020469733056</v>
@@ -4512,28 +4512,28 @@
         <v>746.7254979846277</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768597</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768597</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="T4" t="n">
-        <v>612.5614882768597</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="U4" t="n">
-        <v>612.5614882768597</v>
+        <v>680.8733379003337</v>
       </c>
       <c r="V4" t="n">
-        <v>423.1417032603748</v>
+        <v>680.8733379003337</v>
       </c>
       <c r="W4" t="n">
-        <v>423.1417032603748</v>
+        <v>680.8733379003337</v>
       </c>
       <c r="X4" t="n">
-        <v>423.1417032603748</v>
+        <v>680.8733379003337</v>
       </c>
       <c r="Y4" t="n">
-        <v>233.7219182438899</v>
+        <v>491.4535528838488</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1230.129894100703</v>
+        <v>842.9152257181316</v>
       </c>
       <c r="C5" t="n">
-        <v>861.1673771602915</v>
+        <v>842.9152257181316</v>
       </c>
       <c r="D5" t="n">
-        <v>861.1673771602915</v>
+        <v>842.9152257181316</v>
       </c>
       <c r="E5" t="n">
-        <v>861.1673771602915</v>
+        <v>457.1269731198874</v>
       </c>
       <c r="F5" t="n">
         <v>450.1814723706839</v>
@@ -4594,25 +4594,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1544.727438003256</v>
+        <v>1602.980824043333</v>
       </c>
       <c r="T5" t="n">
-        <v>1332.709567064687</v>
+        <v>1602.980824043333</v>
       </c>
       <c r="U5" t="n">
-        <v>1332.709567064687</v>
+        <v>1602.980824043333</v>
       </c>
       <c r="V5" t="n">
-        <v>1332.709567064687</v>
+        <v>1602.980824043333</v>
       </c>
       <c r="W5" t="n">
-        <v>1332.709567064687</v>
+        <v>1602.980824043333</v>
       </c>
       <c r="X5" t="n">
-        <v>1332.709567064687</v>
+        <v>1229.515065782253</v>
       </c>
       <c r="Y5" t="n">
-        <v>1230.129894100703</v>
+        <v>1229.515065782253</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.92677704067708</v>
+        <v>879.7140865780027</v>
       </c>
       <c r="C6" t="n">
-        <v>67.92677704067708</v>
+        <v>705.2610572968757</v>
       </c>
       <c r="D6" t="n">
-        <v>67.92677704067708</v>
+        <v>556.3266476356245</v>
       </c>
       <c r="E6" t="n">
-        <v>67.92677704067708</v>
+        <v>397.089192630169</v>
       </c>
       <c r="F6" t="n">
-        <v>67.92677704067708</v>
+        <v>250.5546346570539</v>
       </c>
       <c r="G6" t="n">
-        <v>67.92677704067708</v>
+        <v>113.45327043732</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067708</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>59.04473788968937</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K6" t="n">
-        <v>180.4678301599682</v>
+        <v>305.2979551469729</v>
       </c>
       <c r="L6" t="n">
-        <v>390.0587034127988</v>
+        <v>514.8888283998035</v>
       </c>
       <c r="M6" t="n">
-        <v>653.9982349082861</v>
+        <v>778.8283598952908</v>
       </c>
       <c r="N6" t="n">
-        <v>1031.454455013355</v>
+        <v>1064.162230328624</v>
       </c>
       <c r="O6" t="n">
-        <v>1448.853441912517</v>
+        <v>1302.967182080082</v>
       </c>
       <c r="P6" t="n">
-        <v>1621.182402866226</v>
+        <v>1475.296143033791</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1543.309735648992</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1347.691013115832</v>
+        <v>1490.841830594767</v>
       </c>
       <c r="U6" t="n">
-        <v>1119.574596246804</v>
+        <v>1490.841830594767</v>
       </c>
       <c r="V6" t="n">
-        <v>884.4224880150612</v>
+        <v>1255.689722363025</v>
       </c>
       <c r="W6" t="n">
-        <v>630.1851312868596</v>
+        <v>1255.689722363025</v>
       </c>
       <c r="X6" t="n">
-        <v>422.3336310813268</v>
+        <v>1255.689722363025</v>
       </c>
       <c r="Y6" t="n">
-        <v>214.5733323163728</v>
+        <v>1047.929423598071</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.8383030473768</v>
+        <v>299.7846146157895</v>
       </c>
       <c r="C7" t="n">
-        <v>377.9021201194699</v>
+        <v>299.7846146157895</v>
       </c>
       <c r="D7" t="n">
-        <v>377.9021201194699</v>
+        <v>149.6679752034537</v>
       </c>
       <c r="E7" t="n">
-        <v>348.940930967345</v>
+        <v>149.6679752034537</v>
       </c>
       <c r="F7" t="n">
-        <v>202.0509834694346</v>
+        <v>149.6679752034537</v>
       </c>
       <c r="G7" t="n">
-        <v>33.72921106255854</v>
+        <v>149.6679752034537</v>
       </c>
       <c r="H7" t="n">
-        <v>33.72921106255854</v>
+        <v>149.6679752034537</v>
       </c>
       <c r="I7" t="n">
         <v>33.72921106255854</v>
@@ -4749,28 +4749,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1090.659418261162</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>1090.659418261162</v>
+        <v>1071.595280727592</v>
       </c>
       <c r="U7" t="n">
-        <v>801.5227912532637</v>
+        <v>782.4586537196936</v>
       </c>
       <c r="V7" t="n">
-        <v>546.8383030473768</v>
+        <v>527.7741655138068</v>
       </c>
       <c r="W7" t="n">
-        <v>546.8383030473768</v>
+        <v>527.7741655138068</v>
       </c>
       <c r="X7" t="n">
-        <v>546.8383030473768</v>
+        <v>299.7846146157895</v>
       </c>
       <c r="Y7" t="n">
-        <v>546.8383030473768</v>
+        <v>299.7846146157895</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1692.763657594274</v>
+        <v>1441.038154340967</v>
       </c>
       <c r="C8" t="n">
-        <v>1692.763657594274</v>
+        <v>1072.075637400555</v>
       </c>
       <c r="D8" t="n">
-        <v>1334.497958987524</v>
+        <v>713.8099387938048</v>
       </c>
       <c r="E8" t="n">
-        <v>948.7097063892795</v>
+        <v>713.8099387938048</v>
       </c>
       <c r="F8" t="n">
-        <v>537.723801599672</v>
+        <v>460.3457365513155</v>
       </c>
       <c r="G8" t="n">
-        <v>121.7336115759745</v>
+        <v>44.35554652761801</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7336115759745</v>
+        <v>44.35554652761801</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761839</v>
+        <v>44.35554652761801</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872715</v>
+        <v>156.8927045872695</v>
       </c>
       <c r="K8" t="n">
-        <v>376.295250515901</v>
+        <v>376.2952505158971</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985298</v>
+        <v>685.3852714985233</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556946</v>
+        <v>1060.976912556937</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415492</v>
+        <v>1447.25982741548</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975113</v>
+        <v>1798.680568975099</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631092</v>
+        <v>2064.109040631076</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208131</v>
+        <v>2215.262022208113</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="S8" t="n">
-        <v>2086.57366065015</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="T8" t="n">
-        <v>2086.57366065015</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="U8" t="n">
-        <v>2086.57366065015</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="V8" t="n">
-        <v>2086.57366065015</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="W8" t="n">
-        <v>2086.57366065015</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="X8" t="n">
-        <v>2082.902989570086</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="Y8" t="n">
-        <v>1692.763657594274</v>
+        <v>1827.637994405089</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>837.5170881002864</v>
+        <v>721.8383612799994</v>
       </c>
       <c r="C9" t="n">
-        <v>663.0640588191594</v>
+        <v>547.3853319988724</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9114267512657</v>
+        <v>398.4509223376211</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6739717458101</v>
+        <v>239.2134673321656</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>92.67890935905061</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>70.04102928676146</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676157</v>
+        <v>70.04102928676146</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761839</v>
+        <v>44.35554652761801</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424106</v>
+        <v>92.56405995423995</v>
       </c>
       <c r="K9" t="n">
-        <v>253.1149126643087</v>
+        <v>514.9354973067591</v>
       </c>
       <c r="L9" t="n">
-        <v>515.3178884939856</v>
+        <v>777.1384731364343</v>
       </c>
       <c r="M9" t="n">
-        <v>1005.714389467914</v>
+        <v>1102.473846786538</v>
       </c>
       <c r="N9" t="n">
-        <v>1354.069067308669</v>
+        <v>1450.828524627291</v>
       </c>
       <c r="O9" t="n">
-        <v>1902.968955587946</v>
+        <v>1747.285203042441</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855275</v>
+        <v>1965.884757309769</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472986</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064442</v>
+        <v>2023.155113972357</v>
       </c>
       <c r="U9" t="n">
-        <v>1656.496332322584</v>
+        <v>1795.054962230498</v>
       </c>
       <c r="V9" t="n">
-        <v>1421.344224090841</v>
+        <v>1559.902853998756</v>
       </c>
       <c r="W9" t="n">
-        <v>1421.344224090841</v>
+        <v>1305.665497270554</v>
       </c>
       <c r="X9" t="n">
-        <v>1213.492723885308</v>
+        <v>1097.813997065021</v>
       </c>
       <c r="Y9" t="n">
-        <v>1005.732425120354</v>
+        <v>890.0536983000675</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>619.9660314386995</v>
+        <v>363.4083688678606</v>
       </c>
       <c r="C10" t="n">
-        <v>619.9660314386995</v>
+        <v>194.4721859399537</v>
       </c>
       <c r="D10" t="n">
-        <v>619.9660314386995</v>
+        <v>44.35554652761801</v>
       </c>
       <c r="E10" t="n">
-        <v>472.0529378563064</v>
+        <v>44.35554652761801</v>
       </c>
       <c r="F10" t="n">
-        <v>472.0529378563064</v>
+        <v>44.35554652761801</v>
       </c>
       <c r="G10" t="n">
-        <v>303.9384347202526</v>
+        <v>44.35554652761801</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150579</v>
+        <v>44.35554652761801</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761839</v>
+        <v>44.35554652761801</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692048</v>
+        <v>60.95254262691964</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274034</v>
+        <v>218.0633423274018</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918442</v>
+        <v>474.6375091918417</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921719</v>
+        <v>755.5481168921683</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629319</v>
+        <v>1035.213914629315</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546132</v>
+        <v>1277.514248546126</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659241</v>
+        <v>1461.323360659235</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155969</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="R10" t="n">
-        <v>1475.951672347452</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="S10" t="n">
-        <v>1277.091563618356</v>
+        <v>1378.283813352255</v>
       </c>
       <c r="T10" t="n">
-        <v>1277.091563618356</v>
+        <v>1378.283813352255</v>
       </c>
       <c r="U10" t="n">
-        <v>1277.091563618356</v>
+        <v>1089.158491940948</v>
       </c>
       <c r="V10" t="n">
-        <v>1022.407075412469</v>
+        <v>834.4740037350609</v>
       </c>
       <c r="W10" t="n">
-        <v>1022.407075412469</v>
+        <v>545.0568336981004</v>
       </c>
       <c r="X10" t="n">
-        <v>1022.407075412469</v>
+        <v>545.0568336981004</v>
       </c>
       <c r="Y10" t="n">
-        <v>801.6144962689392</v>
+        <v>545.0568336981004</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,43 +5105,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.575996120533</v>
+        <v>789.7592298206044</v>
       </c>
       <c r="C13" t="n">
-        <v>920.6398131926264</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D13" t="n">
-        <v>770.5231737802909</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E13" t="n">
-        <v>622.610080197898</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429795</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578597</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.903366400058</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5214,37 +5214,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235167</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235167</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2009.42376102928</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1720.006590992319</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X13" t="n">
-        <v>1492.017040094302</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y13" t="n">
-        <v>1271.224460950772</v>
+        <v>971.4076946508442</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273916</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516149</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021782</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400746</v>
+        <v>696.708435085169</v>
       </c>
       <c r="C16" t="n">
-        <v>344.917417812168</v>
+        <v>527.7722521572621</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998325</v>
+        <v>377.6556127449263</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797186</v>
+        <v>377.6556127449263</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>377.6556127449263</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782959</v>
@@ -5442,46 +5442,46 @@
         <v>435.7419440038347</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M16" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>2160.315914855606</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1871.240688199804</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648822</v>
+        <v>1616.556199993917</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611861</v>
+        <v>1327.139029956956</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713844</v>
+        <v>1099.149479058939</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703141</v>
+        <v>878.3568999154087</v>
       </c>
     </row>
     <row r="17">
@@ -5494,73 +5494,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111724</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591813</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273919</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803941</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516149</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438179</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721981</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961269</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.580456911439</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835319</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711964</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888035</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908934</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057735</v>
+        <v>177.7213185270461</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M19" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855606</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855606</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649719</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.214256612758</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.224705714741</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.432126571211</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591813</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273919</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803941</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516149</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784049</v>
+        <v>580.8993044876706</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504983</v>
+        <v>411.9631215597637</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381627</v>
+        <v>261.846482147428</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557698</v>
+        <v>113.9333885650349</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578597</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578597</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="H22" t="n">
-        <v>175.903366400058</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782959</v>
@@ -5937,25 +5937,25 @@
         <v>2446.963083580262</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580262</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T22" t="n">
-        <v>2395.07854074884</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093038</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887152</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850191</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952174</v>
+        <v>983.3403484614405</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808644</v>
+        <v>762.5477693179104</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6019,22 +6019,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078129</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799063</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675707</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851778</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851778</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.903366400058</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.903366400058</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510511</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854709</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611862</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611862</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683317</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3403484614387</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4041655335318</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>664.287526121196</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3744325388029</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4844850408925</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>202.2883857557725</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6429,7 +6429,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>699.73118040114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1330.161775272927</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1102.17222437491</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>881.3796452313798</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6794,13 +6794,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.6442739835331</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2302.863667833011</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2083.262202855953</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1794.18697620015</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1539.502487994263</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1250.085317957303</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1250.085317957303</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.292738813773</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>989.3306680894883</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1170.979132919728</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,22 +7648,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9025067654818</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.880819147006</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1754.805592491204</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>93.05287845629931</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>180.3980153007107</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>147.359858416601</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>166.7284114382047</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>254.993141276894</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>157.2563157025133</v>
       </c>
       <c r="R9" t="n">
-        <v>30.325226556883</v>
+        <v>30.32522655688348</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>9.000252501561704</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012147</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.405450327288</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892439</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>273.1465727897268</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844822694</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922686</v>
+        <v>106.0841272570734</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856532</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.48882721876188</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405059</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856532</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892439</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>125.505489761039</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012146</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>166.0397529241802</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.54000767002348</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>216.1389255780009</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.9077073655013</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>184.0188038644579</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>164.3170701178265</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>38.36786441186791</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.870763674540115</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>65.75554125013267</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>681030.0464378253</v>
+        <v>681030.0464378252</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659136.046982276</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659136.0469822761</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659136.046982276</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710685</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.68137107</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="I2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26371,40 +26371,40 @@
         <v>259123.8056778327</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296917</v>
+        <v>138712.7919296871</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745736</v>
+        <v>589678.7921745788</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854457</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153564</v>
+        <v>60247.1595915357</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484327</v>
+        <v>33617.87336484205</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.851016727</v>
+        <v>154073.8510167285</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296185</v>
+        <v>170385.5244296198</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685528</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685515</v>
+        <v>14216.75207685495</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685514</v>
+        <v>14216.75207685489</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685517</v>
+        <v>14216.75207685489</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26475,19 +26475,19 @@
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969318</v>
+        <v>86168.0402996928</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146522.1982245969</v>
+        <v>-146522.1982245968</v>
       </c>
       <c r="C6" t="n">
-        <v>236000.5779984875</v>
+        <v>236000.5779984866</v>
       </c>
       <c r="D6" t="n">
-        <v>384723.3247120653</v>
+        <v>384723.3247120694</v>
       </c>
       <c r="E6" t="n">
-        <v>61771.19563016969</v>
+        <v>61423.81637580803</v>
       </c>
       <c r="F6" t="n">
-        <v>651449.9878047432</v>
+        <v>651102.6085503867</v>
       </c>
       <c r="G6" t="n">
-        <v>651449.9878047437</v>
+        <v>651102.6085503869</v>
       </c>
       <c r="H6" t="n">
-        <v>651449.9878047437</v>
+        <v>651102.608550387</v>
       </c>
       <c r="I6" t="n">
-        <v>651449.9878047435</v>
+        <v>651102.608550388</v>
       </c>
       <c r="J6" t="n">
-        <v>602385.0430761991</v>
+        <v>602037.6638218421</v>
       </c>
       <c r="K6" t="n">
-        <v>591202.8282132081</v>
+        <v>590855.4489588512</v>
       </c>
       <c r="L6" t="n">
-        <v>617832.1144399006</v>
+        <v>617484.7351855447</v>
       </c>
       <c r="M6" t="n">
-        <v>497376.1367880165</v>
+        <v>497028.7575336582</v>
       </c>
       <c r="N6" t="n">
-        <v>651449.9878047439</v>
+        <v>651102.6085503869</v>
       </c>
       <c r="O6" t="n">
-        <v>651449.9878047438</v>
+        <v>651102.6085503866</v>
       </c>
       <c r="P6" t="n">
-        <v>651449.9878047436</v>
+        <v>651102.6085503869</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,19 +26743,19 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790461</v>
+        <v>863.7717861790425</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26795,19 +26795,19 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952299</v>
+        <v>554.4443315952251</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,19 +26965,19 @@
         <v>201.5110155847053</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814361</v>
+        <v>113.7908296814325</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626274</v>
+        <v>504.2037141626317</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>234.0895511156618</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132481</v>
+        <v>132.8291933132433</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044178</v>
+        <v>618.263956504424</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.089551115662</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132481</v>
+        <v>132.8291933132433</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044178</v>
+        <v>618.263956504424</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132481</v>
+        <v>132.8291933132433</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044178</v>
+        <v>618.263956504424</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>349.7903508530059</v>
       </c>
       <c r="G2" t="n">
-        <v>362.8881840830638</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1081171494881</v>
+        <v>82.47018397181809</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550657</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681227</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377091</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098435</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>100.9376067887959</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27593,10 +27593,10 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>221.0714430099992</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750799</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>57.67085217967617</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
         <v>251.1044530022292</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>284.6840624217095</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.35309392692855</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>51.58442269638843</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>117.7623853859655</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>119.3294871547505</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>155.946485521647</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>303.9125797832803</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734617</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>366.0971363092052</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27937,7 +27937,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>92.84395981742398</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,10 +27946,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>113.0740916723159</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.2918076971922</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088544</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27994,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685653</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>78.35253102015444</v>
+        <v>107.2570757305868</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>71.2757825261349</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>221.2902986167381</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,22 +28380,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-2.444267011014745e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28572,10 +28572,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1.058837553562474e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28800,13 +28800,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28815,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28860,13 +28860,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-5.472467838152014e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-3.296918293926865e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.354941638519189e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -31284,7 +31284,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31363,7 +31363,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31396,7 +31396,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31469,13 +31469,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674555</v>
+        <v>3.47244939167454</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248704</v>
+        <v>35.56222233248689</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725334</v>
+        <v>133.8716051725328</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566385</v>
+        <v>294.7198015566373</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062225</v>
+        <v>441.7085843062206</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766827</v>
+        <v>547.9785573766804</v>
       </c>
       <c r="M8" t="n">
-        <v>609.731729245875</v>
+        <v>609.7317292458725</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799704</v>
+        <v>619.5978260799678</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415066</v>
+        <v>585.0686574415041</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845409</v>
+        <v>499.3425630845388</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451958</v>
+        <v>374.9854692451942</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997769</v>
+        <v>218.126249099776</v>
       </c>
       <c r="S8" t="n">
-        <v>79.128440512784</v>
+        <v>79.12844051278365</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205537</v>
+        <v>15.20064721205531</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339643</v>
+        <v>0.2777959513339631</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328514</v>
+        <v>1.857924219328507</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930434</v>
+        <v>17.94363653930426</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986333</v>
+        <v>63.96800491986306</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743664</v>
+        <v>175.5330947743656</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693768</v>
+        <v>300.0140174693756</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169215</v>
+        <v>403.4058705169198</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675801</v>
+        <v>470.7556234675781</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436911</v>
+        <v>483.2151240436891</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627803</v>
+        <v>442.0474347627784</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873897</v>
+        <v>354.7820379873883</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391978</v>
+        <v>237.1623968391967</v>
       </c>
       <c r="R9" t="n">
-        <v>115.354277407081</v>
+        <v>115.3542774070805</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498356</v>
+        <v>34.51012749498342</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363614</v>
+        <v>7.488738410363583</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347707</v>
+        <v>0.1222318565347702</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765493</v>
+        <v>1.557621253765486</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529685</v>
+        <v>13.84866896529679</v>
       </c>
       <c r="I10" t="n">
-        <v>46.8419191586932</v>
+        <v>46.841919158693</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412203</v>
+        <v>110.1238226412199</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011181</v>
+        <v>180.9672693011174</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552807</v>
+        <v>231.5757998552797</v>
       </c>
       <c r="M10" t="n">
-        <v>244.164211624349</v>
+        <v>244.164211624348</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057687</v>
+        <v>238.3585324057677</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231445</v>
+        <v>220.1626841231435</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463282</v>
+        <v>188.3872105463275</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.429539713036</v>
+        <v>130.4295397130354</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658296</v>
+        <v>70.03631564658266</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516771</v>
+        <v>27.1450903951676</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543468</v>
+        <v>6.655290811543439</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0849611592962997</v>
+        <v>0.08496115929629935</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912037</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366857</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O14" t="n">
         <v>926.5868626460034</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N15" t="n">
-        <v>639.8517673857165</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>390.1398273256853</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L18" t="n">
-        <v>579.529959444714</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>436.0678650905992</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192539</v>
       </c>
       <c r="O21" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33669,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>716.71805534327</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.57123921932407</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K6" t="n">
         <v>122.6495881517968</v>
@@ -35023,19 +35023,19 @@
         <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>381.2689091970394</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>421.6151382819818</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.93752551686947</v>
+        <v>213.2973839334705</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299522</v>
+        <v>113.673897029951</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612419</v>
+        <v>221.61873326124</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066955</v>
+        <v>312.2121424066932</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186023</v>
+        <v>379.3854960185998</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833795</v>
+        <v>390.1847624833769</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198199</v>
+        <v>354.9704460198174</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292714</v>
+        <v>268.1095673292693</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707463</v>
+        <v>152.6797793707447</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644818</v>
+        <v>2.54071128564388</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769967</v>
+        <v>48.69546810769893</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950178</v>
+        <v>426.6378155075952</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370474</v>
+        <v>264.8514907370457</v>
       </c>
       <c r="M9" t="n">
-        <v>495.3500009837664</v>
+        <v>328.6215895455597</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603578</v>
+        <v>351.8734119603557</v>
       </c>
       <c r="O9" t="n">
-        <v>554.4443315952299</v>
+        <v>299.451190318334</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730595</v>
+        <v>220.807630573058</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317624</v>
+        <v>254.4369384556886</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454755</v>
+        <v>16.7646425245471</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752353</v>
+        <v>158.6977774752345</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155968</v>
+        <v>259.1658251155958</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861896</v>
+        <v>283.7480885861885</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849973</v>
+        <v>282.4907047849963</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371841</v>
+        <v>244.7478120371832</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112217</v>
+        <v>185.6657698112209</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134157</v>
+        <v>44.26749646134103</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.4611020691854</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533524</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295357</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
         <v>696.4886512243166</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>508.5100553023832</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295357</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096352</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P16" t="n">
         <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L18" t="n">
-        <v>440.9755796648398</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>302.0934576762689</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295357</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096352</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P19" t="n">
         <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>332.6181808359206</v>
       </c>
       <c r="O21" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629536</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096352</v>
@@ -36296,10 +36296,10 @@
         <v>373.2618997060457</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066252</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629536</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>574.5840214212516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3616157.697639712</v>
+        <v>3617918.227942497</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7674144.643594543</v>
+        <v>7674144.643594544</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>57.08569488870559</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>50.20964914699436</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>75.17489648358286</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>111.0567566117641</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>65.1936384834511</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>62.28353214152663</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>117.5717775782569</v>
       </c>
       <c r="G5" t="n">
         <v>412.2877386950441</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.64493179374789</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>45.07122846267654</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>182.4844519660405</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>173.1177299903904</v>
       </c>
       <c r="T7" t="n">
-        <v>102.8375604775658</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>250.9295602200644</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8302881234605</v>
+        <v>53.69545771428492</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787265</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734614</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>22.41150127156626</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719214</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155201</v>
+        <v>25.42862793155182</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>120.7956838588459</v>
       </c>
       <c r="U9" t="n">
         <v>225.8191502244401</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>125.5957251156698</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>119.9747826433685</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>13.37642554686418</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206852</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>59.44001103519545</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856549</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560572</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605717913</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560572</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>19.91555826189229</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.445727774093873</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187862</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179411</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>78.9105100867805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298974</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>151.6499090771556</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.8228542207806</v>
+        <v>199.403069204296</v>
       </c>
       <c r="C2" t="n">
-        <v>388.8228542207806</v>
+        <v>199.403069204296</v>
       </c>
       <c r="D2" t="n">
-        <v>388.8228542207806</v>
+        <v>199.403069204296</v>
       </c>
       <c r="E2" t="n">
-        <v>388.8228542207806</v>
+        <v>199.403069204296</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513811</v>
+        <v>192.4575684550925</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4327,55 +4327,55 @@
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372655</v>
+        <v>578.242639237266</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372655</v>
+        <v>578.242639237266</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372655</v>
+        <v>388.822854220781</v>
       </c>
       <c r="V2" t="n">
-        <v>578.2426392372655</v>
+        <v>388.822854220781</v>
       </c>
       <c r="W2" t="n">
-        <v>578.2426392372655</v>
+        <v>388.822854220781</v>
       </c>
       <c r="X2" t="n">
-        <v>578.2426392372655</v>
+        <v>388.822854220781</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207806</v>
+        <v>199.403069204296</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.7966468059547</v>
+        <v>581.8870116452124</v>
       </c>
       <c r="C3" t="n">
-        <v>192.7966468059547</v>
+        <v>581.8870116452124</v>
       </c>
       <c r="D3" t="n">
-        <v>192.7966468059547</v>
+        <v>432.9526019839611</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>273.7151469785056</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>127.1805890053906</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389244</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T3" t="n">
-        <v>382.2164318224395</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U3" t="n">
-        <v>192.7966468059547</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V3" t="n">
-        <v>192.7966468059547</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W3" t="n">
-        <v>192.7966468059547</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="X3" t="n">
-        <v>192.7966468059547</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Y3" t="n">
-        <v>192.7966468059547</v>
+        <v>750.1023486652805</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.8050880536091</v>
+        <v>502.1643744255737</v>
       </c>
       <c r="C4" t="n">
-        <v>309.8050880536091</v>
+        <v>502.1643744255737</v>
       </c>
       <c r="D4" t="n">
-        <v>309.8050880536091</v>
+        <v>502.1643744255737</v>
       </c>
       <c r="E4" t="n">
-        <v>161.891994471216</v>
+        <v>354.2512808431806</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>207.3613333452702</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>43.17590452428138</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>216.0634826394165</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830975</v>
+        <v>401.7138139340734</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777543</v>
+        <v>587.3641452287303</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143045</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="U4" t="n">
-        <v>680.8733379003337</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="V4" t="n">
-        <v>680.8733379003337</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="W4" t="n">
-        <v>680.8733379003337</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="X4" t="n">
-        <v>680.8733379003337</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="Y4" t="n">
-        <v>491.4535528838488</v>
+        <v>683.8128392558134</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>842.9152257181316</v>
+        <v>1312.994794866847</v>
       </c>
       <c r="C5" t="n">
-        <v>842.9152257181316</v>
+        <v>1312.994794866847</v>
       </c>
       <c r="D5" t="n">
-        <v>842.9152257181316</v>
+        <v>954.7290962600969</v>
       </c>
       <c r="E5" t="n">
-        <v>457.1269731198874</v>
+        <v>568.9408436618526</v>
       </c>
       <c r="F5" t="n">
         <v>450.1814723706839</v>
@@ -4594,25 +4594,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1602.980824043333</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1602.980824043333</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1602.980824043333</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>1602.980824043333</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W5" t="n">
-        <v>1602.980824043333</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="X5" t="n">
-        <v>1229.515065782253</v>
+        <v>1312.994794866847</v>
       </c>
       <c r="Y5" t="n">
-        <v>1229.515065782253</v>
+        <v>1312.994794866847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>879.7140865780027</v>
+        <v>662.8886629835073</v>
       </c>
       <c r="C6" t="n">
-        <v>705.2610572968757</v>
+        <v>488.4356337023803</v>
       </c>
       <c r="D6" t="n">
-        <v>556.3266476356245</v>
+        <v>339.501224041129</v>
       </c>
       <c r="E6" t="n">
-        <v>397.089192630169</v>
+        <v>180.2637690356736</v>
       </c>
       <c r="F6" t="n">
-        <v>250.5546346570539</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>113.45327043732</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067707</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>183.8748628766941</v>
+        <v>121.7846078506383</v>
       </c>
       <c r="K6" t="n">
-        <v>305.2979551469729</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>514.8888283998035</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>778.8283598952908</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.162230328624</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.967182080082</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.296143033791</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4676,22 +4676,22 @@
         <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1490.841830594767</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U6" t="n">
-        <v>1490.841830594767</v>
+        <v>1458.344136258899</v>
       </c>
       <c r="V6" t="n">
-        <v>1255.689722363025</v>
+        <v>1223.192028027156</v>
       </c>
       <c r="W6" t="n">
-        <v>1255.689722363025</v>
+        <v>1223.192028027156</v>
       </c>
       <c r="X6" t="n">
-        <v>1255.689722363025</v>
+        <v>1038.864298768529</v>
       </c>
       <c r="Y6" t="n">
-        <v>1047.929423598071</v>
+        <v>831.1040000035753</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>299.7846146157895</v>
+        <v>483.479032606702</v>
       </c>
       <c r="C7" t="n">
-        <v>299.7846146157895</v>
+        <v>483.479032606702</v>
       </c>
       <c r="D7" t="n">
-        <v>149.6679752034537</v>
+        <v>333.3623931943663</v>
       </c>
       <c r="E7" t="n">
-        <v>149.6679752034537</v>
+        <v>185.4492996119732</v>
       </c>
       <c r="F7" t="n">
-        <v>149.6679752034537</v>
+        <v>185.4492996119732</v>
       </c>
       <c r="G7" t="n">
-        <v>149.6679752034537</v>
+        <v>185.4492996119732</v>
       </c>
       <c r="H7" t="n">
-        <v>149.6679752034537</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I7" t="n">
         <v>33.72921106255854</v>
@@ -4752,25 +4752,25 @@
         <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1175.471604442305</v>
+        <v>1000.605210512617</v>
       </c>
       <c r="T7" t="n">
-        <v>1071.595280727592</v>
+        <v>1000.605210512617</v>
       </c>
       <c r="U7" t="n">
-        <v>782.4586537196936</v>
+        <v>711.4685835047194</v>
       </c>
       <c r="V7" t="n">
-        <v>527.7741655138068</v>
+        <v>711.4685835047194</v>
       </c>
       <c r="W7" t="n">
-        <v>527.7741655138068</v>
+        <v>711.4685835047194</v>
       </c>
       <c r="X7" t="n">
-        <v>299.7846146157895</v>
+        <v>483.479032606702</v>
       </c>
       <c r="Y7" t="n">
-        <v>299.7846146157895</v>
+        <v>483.479032606702</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1441.038154340967</v>
+        <v>1699.973820586024</v>
       </c>
       <c r="C8" t="n">
-        <v>1072.075637400555</v>
+        <v>1331.011303645612</v>
       </c>
       <c r="D8" t="n">
-        <v>713.8099387938048</v>
+        <v>972.7456050388616</v>
       </c>
       <c r="E8" t="n">
-        <v>713.8099387938048</v>
+        <v>586.9573524406173</v>
       </c>
       <c r="F8" t="n">
-        <v>460.3457365513155</v>
+        <v>175.9714476510098</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761801</v>
+        <v>121.7336115759745</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761801</v>
+        <v>121.7336115759745</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761801</v>
+        <v>44.35554652761829</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872695</v>
+        <v>156.8927045872711</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158971</v>
+        <v>376.2952505159002</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985233</v>
+        <v>685.3852714985283</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556937</v>
+        <v>1060.976912556944</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.25982741548</v>
+        <v>1447.259827415489</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975099</v>
+        <v>1798.68056897511</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631076</v>
+        <v>2064.109040631088</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208113</v>
+        <v>2215.262022208126</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.7773263809</v>
+        <v>2217.777326380914</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.7773263809</v>
+        <v>2086.573660650145</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.7773263809</v>
+        <v>2086.573660650145</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.7773263809</v>
+        <v>2086.573660650145</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.7773263809</v>
+        <v>2086.573660650145</v>
       </c>
       <c r="W8" t="n">
-        <v>2217.7773263809</v>
+        <v>2086.573660650145</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.7773263809</v>
+        <v>2086.573660650145</v>
       </c>
       <c r="Y8" t="n">
-        <v>1827.637994405089</v>
+        <v>2086.573660650145</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>721.8383612799994</v>
+        <v>794.4447314068942</v>
       </c>
       <c r="C9" t="n">
-        <v>547.3853319988724</v>
+        <v>619.9917021257672</v>
       </c>
       <c r="D9" t="n">
-        <v>398.4509223376211</v>
+        <v>471.057292464516</v>
       </c>
       <c r="E9" t="n">
-        <v>239.2134673321656</v>
+        <v>311.8198374590605</v>
       </c>
       <c r="F9" t="n">
-        <v>92.67890935905061</v>
+        <v>165.2852794859455</v>
       </c>
       <c r="G9" t="n">
-        <v>70.04102928676146</v>
+        <v>165.2852794859455</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676146</v>
+        <v>70.04102928676153</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761801</v>
+        <v>44.35554652761829</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995423995</v>
+        <v>217.3941849412455</v>
       </c>
       <c r="K9" t="n">
-        <v>514.9354973067591</v>
+        <v>447.5982561718699</v>
       </c>
       <c r="L9" t="n">
-        <v>777.1384731364343</v>
+        <v>709.8012320015463</v>
       </c>
       <c r="M9" t="n">
-        <v>1102.473846786538</v>
+        <v>1035.136605651652</v>
       </c>
       <c r="N9" t="n">
-        <v>1450.828524627291</v>
+        <v>1383.491283492406</v>
       </c>
       <c r="O9" t="n">
-        <v>1747.285203042441</v>
+        <v>1679.947961907558</v>
       </c>
       <c r="P9" t="n">
-        <v>1965.884757309769</v>
+        <v>1898.547516174886</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.7773263809</v>
+        <v>2202.732847559021</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.7773263809</v>
+        <v>2217.777326380914</v>
       </c>
       <c r="S9" t="n">
-        <v>2217.7773263809</v>
+        <v>2217.777326380914</v>
       </c>
       <c r="T9" t="n">
-        <v>2023.155113972357</v>
+        <v>2095.761484099252</v>
       </c>
       <c r="U9" t="n">
-        <v>1795.054962230498</v>
+        <v>1867.661332357393</v>
       </c>
       <c r="V9" t="n">
-        <v>1559.902853998756</v>
+        <v>1632.50922412565</v>
       </c>
       <c r="W9" t="n">
-        <v>1305.665497270554</v>
+        <v>1378.271867397449</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.813997065021</v>
+        <v>1170.420367191916</v>
       </c>
       <c r="Y9" t="n">
-        <v>890.0536983000675</v>
+        <v>962.6600684269622</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.4083688678606</v>
+        <v>658.2114099481644</v>
       </c>
       <c r="C10" t="n">
-        <v>194.4721859399537</v>
+        <v>489.2752270202575</v>
       </c>
       <c r="D10" t="n">
-        <v>44.35554652761801</v>
+        <v>339.1585876079217</v>
       </c>
       <c r="E10" t="n">
-        <v>44.35554652761801</v>
+        <v>191.2454940255286</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761801</v>
+        <v>44.35554652761829</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761801</v>
+        <v>44.35554652761829</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761801</v>
+        <v>44.35554652761829</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761801</v>
+        <v>44.35554652761829</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691964</v>
+        <v>60.95254262692025</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274018</v>
+        <v>218.063342327403</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918417</v>
+        <v>474.6375091918436</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921683</v>
+        <v>755.548116892171</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629315</v>
+        <v>1035.213914629318</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546126</v>
+        <v>1277.51424854613</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659235</v>
+        <v>1461.323360659239</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155962</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155962</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="S10" t="n">
-        <v>1378.283813352255</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="T10" t="n">
-        <v>1378.283813352255</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="U10" t="n">
-        <v>1089.158491940948</v>
+        <v>1383.961533021252</v>
       </c>
       <c r="V10" t="n">
-        <v>834.4740037350609</v>
+        <v>1129.277044815365</v>
       </c>
       <c r="W10" t="n">
-        <v>545.0568336981004</v>
+        <v>839.8598747784041</v>
       </c>
       <c r="X10" t="n">
-        <v>545.0568336981004</v>
+        <v>839.8598747784041</v>
       </c>
       <c r="Y10" t="n">
-        <v>545.0568336981004</v>
+        <v>839.8598747784041</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5062,13 +5062,13 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206044</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926976</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803618</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979687</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5238,13 +5238,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.189824692392</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.200273794374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508442</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,49 +5281,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273916</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516149</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348534</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348534</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.708435085169</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572621</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449263</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E16" t="n">
-        <v>377.6556127449263</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>377.6556127449263</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832665</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855606</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199804</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993917</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956956</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058939</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154087</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111724</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398598</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492583</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474788</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466578</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123007</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852893</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591813</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803941</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516149</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167374</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721981</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2253.988764961269</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740073</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121661</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121661</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121661</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121661</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270461</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138429</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703128</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398598</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492583</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474788</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466578</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123007</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852893</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591813</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803941</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516149</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876706</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597637</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>261.846482147428</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650349</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797196</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797196</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359458</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614405</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179104</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7414,7 +7414,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
         <v>402.7245934908939</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2043.880819147006</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.805592491204</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.121104285317</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>42.56275186471107</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8148,13 +8148,13 @@
         <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777618</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>147.359858416601</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>70.35678638440106</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157.2563157025133</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688348</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>273.1465727897268</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823012</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>106.0841272570734</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405059</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>125.505489761039</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012162</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.1389255780009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>69.70496293143185</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>65.54986409393064</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>65.75554125013267</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>681030.0464378252</v>
+        <v>681030.0464378253</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>779989.6813710686</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="J2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055058</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778327</v>
+        <v>259123.8056778326</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296871</v>
+        <v>138712.7919296905</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745788</v>
+        <v>589678.7921745752</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854457</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.1595915357</v>
+        <v>60247.15959153561</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484205</v>
+        <v>33617.87336484296</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167285</v>
+        <v>154073.8510167275</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632063</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296198</v>
+        <v>170385.5244296188</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685495</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685489</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685489</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.0402996928</v>
+        <v>86168.04029969308</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146522.1982245968</v>
+        <v>-146522.198224597</v>
       </c>
       <c r="C6" t="n">
-        <v>236000.5779984866</v>
+        <v>236000.577998487</v>
       </c>
       <c r="D6" t="n">
-        <v>384723.3247120694</v>
+        <v>384723.3247120665</v>
       </c>
       <c r="E6" t="n">
-        <v>61423.81637580803</v>
+        <v>61736.45770473279</v>
       </c>
       <c r="F6" t="n">
-        <v>651102.6085503867</v>
+        <v>651415.2498793077</v>
       </c>
       <c r="G6" t="n">
-        <v>651102.6085503869</v>
+        <v>651415.2498793085</v>
       </c>
       <c r="H6" t="n">
-        <v>651102.608550387</v>
+        <v>651415.2498793082</v>
       </c>
       <c r="I6" t="n">
-        <v>651102.608550388</v>
+        <v>651415.2498793084</v>
       </c>
       <c r="J6" t="n">
-        <v>602037.6638218421</v>
+        <v>602350.3051507634</v>
       </c>
       <c r="K6" t="n">
-        <v>590855.4489588512</v>
+        <v>591168.0902877725</v>
       </c>
       <c r="L6" t="n">
-        <v>617484.7351855447</v>
+        <v>617797.3765144652</v>
       </c>
       <c r="M6" t="n">
-        <v>497028.7575336582</v>
+        <v>497341.3988625804</v>
       </c>
       <c r="N6" t="n">
-        <v>651102.6085503869</v>
+        <v>651415.2498793079</v>
       </c>
       <c r="O6" t="n">
-        <v>651102.6085503866</v>
+        <v>651415.249879308</v>
       </c>
       <c r="P6" t="n">
-        <v>651102.6085503869</v>
+        <v>651415.2498793082</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790425</v>
+        <v>863.7717861790452</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952251</v>
+        <v>554.4443315952286</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847053</v>
+        <v>201.5110155847052</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814325</v>
+        <v>113.7908296814352</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626317</v>
+        <v>504.2037141626288</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132433</v>
+        <v>132.8291933132468</v>
       </c>
       <c r="E4" t="n">
-        <v>618.263956504424</v>
+        <v>618.26395650442</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.089551115662</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132433</v>
+        <v>132.8291933132468</v>
       </c>
       <c r="M4" t="n">
-        <v>618.263956504424</v>
+        <v>618.26395650442</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132433</v>
+        <v>132.8291933132468</v>
       </c>
       <c r="M4" t="n">
-        <v>618.263956504424</v>
+        <v>618.26395650442</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>349.7903508530059</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>362.8881840830637</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27435,7 +27435,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871021</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>82.47018397181809</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>25.1070327540112</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681227</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377091</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>221.0714430099992</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577478</v>
+        <v>156.3011212105682</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>289.3042681634545</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>57.67085217967617</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
         <v>209.8976922291835</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>51.58442269638843</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,10 +27748,10 @@
         <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>23.28853323743701</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>27.32979438091104</v>
       </c>
       <c r="T7" t="n">
-        <v>119.3294871547505</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>155.946485521647</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>358.1348304091755</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832803</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787307</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734617</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27946,10 +27946,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>113.0740916723159</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.2918076971922</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088544</v>
+        <v>137.1730436088543</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>71.88030642561208</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421428</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685653</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305868</v>
+        <v>107.2570757305866</v>
       </c>
       <c r="S10" t="n">
-        <v>71.2757825261349</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2902986167381</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>166.259285553826</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31077,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31138,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31147,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.47244939167454</v>
+        <v>3.472449391674551</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248689</v>
+        <v>35.562222332487</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725328</v>
+        <v>133.8716051725333</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566373</v>
+        <v>294.7198015566382</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062206</v>
+        <v>441.708584306222</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766804</v>
+        <v>547.9785573766821</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458725</v>
+        <v>609.7317292458745</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799678</v>
+        <v>619.5978260799698</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415041</v>
+        <v>585.0686574415059</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845388</v>
+        <v>499.3425630845404</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451942</v>
+        <v>374.9854692451954</v>
       </c>
       <c r="R8" t="n">
-        <v>218.126249099776</v>
+        <v>218.1262490997767</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278365</v>
+        <v>79.12844051278391</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205531</v>
+        <v>15.20064721205535</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339631</v>
+        <v>0.277795951333964</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328507</v>
+        <v>1.857924219328512</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930426</v>
+        <v>17.94363653930432</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986306</v>
+        <v>63.96800491986326</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743656</v>
+        <v>175.5330947743662</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693756</v>
+        <v>300.0140174693765</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169198</v>
+        <v>403.4058705169211</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675781</v>
+        <v>470.7556234675796</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436891</v>
+        <v>483.2151240436906</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627784</v>
+        <v>442.0474347627799</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873883</v>
+        <v>354.7820379873894</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391967</v>
+        <v>237.1623968391975</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070805</v>
+        <v>115.3542774070808</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498342</v>
+        <v>34.51012749498353</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363583</v>
+        <v>7.488738410363606</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347702</v>
+        <v>0.1222318565347706</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765486</v>
+        <v>1.557621253765491</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529679</v>
+        <v>13.84866896529683</v>
       </c>
       <c r="I10" t="n">
-        <v>46.841919158693</v>
+        <v>46.84191915869315</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412199</v>
+        <v>110.1238226412202</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011174</v>
+        <v>180.9672693011179</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552797</v>
+        <v>231.5757998552804</v>
       </c>
       <c r="M10" t="n">
-        <v>244.164211624348</v>
+        <v>244.1642116243487</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057677</v>
+        <v>238.3585324057685</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231435</v>
+        <v>220.1626841231442</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463275</v>
+        <v>188.387210546328</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130354</v>
+        <v>130.4295397130358</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658266</v>
+        <v>70.03631564658289</v>
       </c>
       <c r="S10" t="n">
-        <v>27.1450903951676</v>
+        <v>27.14509039516768</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543439</v>
+        <v>6.655290811543461</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629935</v>
+        <v>0.08496115929629962</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912037</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.279049007179</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1398273256853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742442</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.279049007179</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437247</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>436.0678650905992</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K20" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422589</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192539</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437247</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>28.45844197068259</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068235</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.6622745597329</v>
+        <v>88.94484524048465</v>
       </c>
       <c r="K6" t="n">
         <v>122.6495881517968</v>
@@ -35035,7 +35035,7 @@
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>213.2973839334705</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.673897029951</v>
+        <v>113.6738970299519</v>
       </c>
       <c r="K8" t="n">
-        <v>221.61873326124</v>
+        <v>221.6187332612415</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066932</v>
+        <v>312.2121424066949</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960185998</v>
+        <v>379.3854960186018</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833769</v>
+        <v>390.1847624833788</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198174</v>
+        <v>354.9704460198192</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292693</v>
+        <v>268.1095673292709</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707447</v>
+        <v>152.6797793707459</v>
       </c>
       <c r="R8" t="n">
-        <v>2.54071128564388</v>
+        <v>2.540711285644591</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769893</v>
+        <v>174.7865034481083</v>
       </c>
       <c r="K9" t="n">
-        <v>426.6378155075952</v>
+        <v>232.5293648794186</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370457</v>
+        <v>264.8514907370469</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455597</v>
+        <v>328.6215895455613</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603557</v>
+        <v>351.8734119603573</v>
       </c>
       <c r="O9" t="n">
-        <v>299.451190318334</v>
+        <v>299.4511903183354</v>
       </c>
       <c r="P9" t="n">
-        <v>220.807630573058</v>
+        <v>220.8076305730592</v>
       </c>
       <c r="Q9" t="n">
-        <v>254.4369384556886</v>
+        <v>307.2579104890251</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.19644325443771</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.7646425245471</v>
+        <v>16.76464252454744</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752345</v>
+        <v>158.6977774752351</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155958</v>
+        <v>259.1658251155966</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861885</v>
+        <v>283.7480885861893</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849963</v>
+        <v>282.4907047849971</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371832</v>
+        <v>244.7478120371839</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112209</v>
+        <v>185.6657698112215</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134103</v>
+        <v>44.26749646134142</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691854</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396423</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924731</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774986</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678999</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674335</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238457</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>256.1654199113551</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462694</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902954</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774986</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678999</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674335</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238457</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992803</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>302.0934576762689</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396423</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462694</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902954</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774986</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678999</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674335</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359206</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992803</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
